--- a/Code/Results/Cases/Case_0_189/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_189/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2744745223134117</v>
+        <v>0.2535284767066628</v>
       </c>
       <c r="D2">
-        <v>0.07983574005909588</v>
+        <v>0.03384184930752099</v>
       </c>
       <c r="E2">
-        <v>0.160191256629723</v>
+        <v>0.1460973905544876</v>
       </c>
       <c r="F2">
-        <v>0.2812061572929991</v>
+        <v>0.570786126120403</v>
       </c>
       <c r="G2">
-        <v>0.1784425593358137</v>
+        <v>0.4119813430658041</v>
       </c>
       <c r="H2">
-        <v>0.1795858330919984</v>
+        <v>0.5818873947717478</v>
       </c>
       <c r="I2">
-        <v>0.2754940508619619</v>
+        <v>0.6100275392125774</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.273341117374741</v>
+        <v>1.8271088237085</v>
       </c>
       <c r="L2">
-        <v>0.1836478740048122</v>
+        <v>0.1657999108884667</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7043390523461568</v>
+        <v>1.935801470792597</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2439131547394595</v>
+        <v>0.2459551058914968</v>
       </c>
       <c r="D3">
-        <v>0.07067764984769553</v>
+        <v>0.03077883211933852</v>
       </c>
       <c r="E3">
-        <v>0.1423711299487103</v>
+        <v>0.1420438851354504</v>
       </c>
       <c r="F3">
-        <v>0.2691067256889781</v>
+        <v>0.5762823226489218</v>
       </c>
       <c r="G3">
-        <v>0.1744737549402444</v>
+        <v>0.4187710497625545</v>
       </c>
       <c r="H3">
-        <v>0.1851081906514693</v>
+        <v>0.5898434115779878</v>
       </c>
       <c r="I3">
-        <v>0.2662789584104566</v>
+        <v>0.615983827839262</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.597358067472328</v>
+        <v>1.604884620796497</v>
       </c>
       <c r="L3">
-        <v>0.1631855970955698</v>
+        <v>0.1614548716992559</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7070673752845096</v>
+        <v>1.966560233321019</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2253244893353639</v>
+        <v>0.2413992630319797</v>
       </c>
       <c r="D4">
-        <v>0.06504699016580417</v>
+        <v>0.02888790721193146</v>
       </c>
       <c r="E4">
-        <v>0.1315807047556881</v>
+        <v>0.139626942099639</v>
       </c>
       <c r="F4">
-        <v>0.2627818148356909</v>
+        <v>0.5801803780047905</v>
       </c>
       <c r="G4">
-        <v>0.1730985638940439</v>
+        <v>0.4234010830165076</v>
       </c>
       <c r="H4">
-        <v>0.1891517247756127</v>
+        <v>0.5950985632668804</v>
       </c>
       <c r="I4">
-        <v>0.2616263538945951</v>
+        <v>0.6201408263452244</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.182104480150201</v>
+        <v>1.467890819799038</v>
       </c>
       <c r="L4">
-        <v>0.1508426346418901</v>
+        <v>0.1588840840587693</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7123500390171245</v>
+        <v>1.987188871812862</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2177897860294138</v>
+        <v>0.2395665547145143</v>
       </c>
       <c r="D5">
-        <v>0.06275003846944571</v>
+        <v>0.02811482424070277</v>
       </c>
       <c r="E5">
-        <v>0.1272183278343277</v>
+        <v>0.1386601477558322</v>
       </c>
       <c r="F5">
-        <v>0.2604661083374182</v>
+        <v>0.5819001913013295</v>
       </c>
       <c r="G5">
-        <v>0.1727891779376449</v>
+        <v>0.4254034280386705</v>
       </c>
       <c r="H5">
-        <v>0.1909564820565137</v>
+        <v>0.5973330628598248</v>
       </c>
       <c r="I5">
-        <v>0.2599692915240048</v>
+        <v>0.6219603016009323</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.012794029273664</v>
+        <v>1.411931352451404</v>
       </c>
       <c r="L5">
-        <v>0.1458637099103939</v>
+        <v>0.1578608908672763</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.715361065089084</v>
+        <v>1.996032401628042</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2165409784150256</v>
+        <v>0.2392636785209419</v>
       </c>
       <c r="D6">
-        <v>0.0623684715111068</v>
+        <v>0.02798630406406488</v>
       </c>
       <c r="E6">
-        <v>0.1264959701671202</v>
+        <v>0.1385007085542362</v>
       </c>
       <c r="F6">
-        <v>0.2600969445639905</v>
+        <v>0.5821936883713974</v>
       </c>
       <c r="G6">
-        <v>0.1727525131507406</v>
+        <v>0.4257428846658158</v>
       </c>
       <c r="H6">
-        <v>0.1912654389982436</v>
+        <v>0.5977097131395439</v>
       </c>
       <c r="I6">
-        <v>0.259708172402231</v>
+        <v>0.6222699954419788</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.984673493473395</v>
+        <v>1.402631394891841</v>
       </c>
       <c r="L6">
-        <v>0.1450399087237599</v>
+        <v>0.1576924658816878</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.715911498415565</v>
+        <v>1.997527238743686</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2252227154783384</v>
+        <v>0.2413744497985988</v>
       </c>
       <c r="D7">
-        <v>0.065016023086514</v>
+        <v>0.02887749125844863</v>
       </c>
       <c r="E7">
-        <v>0.1315217353968912</v>
+        <v>0.1396138301092265</v>
       </c>
       <c r="F7">
-        <v>0.2627495450990693</v>
+        <v>0.5802030406566132</v>
       </c>
       <c r="G7">
-        <v>0.1730933955878768</v>
+        <v>0.4234276199195861</v>
       </c>
       <c r="H7">
-        <v>0.189175437960138</v>
+        <v>0.5951283221456336</v>
       </c>
       <c r="I7">
-        <v>0.2616030567570746</v>
+        <v>0.6201648567131883</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.179821522287682</v>
+        <v>1.467136665271994</v>
       </c>
       <c r="L7">
-        <v>0.1507752868393908</v>
+        <v>0.1588701860117609</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7123872344078848</v>
+        <v>1.987306369915842</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2638979423704626</v>
+        <v>0.2508976991587843</v>
       </c>
       <c r="D8">
-        <v>0.07667927492430238</v>
+        <v>0.03278787358417645</v>
       </c>
       <c r="E8">
-        <v>0.1540135021463982</v>
+        <v>0.1446848380197423</v>
       </c>
       <c r="F8">
-        <v>0.2767952873812618</v>
+        <v>0.5725724204389095</v>
       </c>
       <c r="G8">
-        <v>0.1768439294719499</v>
+        <v>0.4142264965257993</v>
       </c>
       <c r="H8">
-        <v>0.1813500400314325</v>
+        <v>0.5845537574252049</v>
       </c>
       <c r="I8">
-        <v>0.2720994027712038</v>
+        <v>0.6119774004569223</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.040276814379183</v>
+        <v>1.750601954362139</v>
       </c>
       <c r="L8">
-        <v>0.1765437530659995</v>
+        <v>0.1642815964343853</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7045009399455182</v>
+        <v>1.946044805754156</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3413312273887072</v>
+        <v>0.270315608609593</v>
       </c>
       <c r="D9">
-        <v>0.09951723202303242</v>
+        <v>0.04037301997783516</v>
       </c>
       <c r="E9">
-        <v>0.1994752990894497</v>
+        <v>0.1551985438235519</v>
       </c>
       <c r="F9">
-        <v>0.313856862692397</v>
+        <v>0.5617744437591057</v>
       </c>
       <c r="G9">
-        <v>0.193380676196071</v>
+        <v>0.3998591919051862</v>
       </c>
       <c r="H9">
-        <v>0.1715240403074532</v>
+        <v>0.5667576644274845</v>
       </c>
       <c r="I9">
-        <v>0.3013239400529315</v>
+        <v>0.5998976657291237</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.728191369276715</v>
+        <v>2.301976376583752</v>
       </c>
       <c r="L9">
-        <v>0.2290524689050102</v>
+        <v>0.1756639644864748</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7199793240474008</v>
+        <v>1.879002855878355</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3994839394325709</v>
+        <v>0.2850299678272279</v>
       </c>
       <c r="D10">
-        <v>0.1163171596812305</v>
+        <v>0.04589300757150738</v>
       </c>
       <c r="E10">
-        <v>0.2339359409451092</v>
+        <v>0.1632694884550219</v>
       </c>
       <c r="F10">
-        <v>0.3480025043065567</v>
+        <v>0.5563989767970554</v>
       </c>
       <c r="G10">
-        <v>0.2122436589714667</v>
+        <v>0.3915682528090869</v>
       </c>
       <c r="H10">
-        <v>0.1681697387920806</v>
+        <v>0.555480588394154</v>
       </c>
       <c r="I10">
-        <v>0.3290404824226201</v>
+        <v>0.5934607186227723</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7.971986143117135</v>
+        <v>2.704156078571771</v>
       </c>
       <c r="L10">
-        <v>0.2691699708765753</v>
+        <v>0.1844979173025223</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.7536287453476405</v>
+        <v>1.838264972841259</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.426283503159965</v>
+        <v>0.291820284780357</v>
       </c>
       <c r="D11">
-        <v>0.1239746188697239</v>
+        <v>0.04839230633238856</v>
       </c>
       <c r="E11">
-        <v>0.2498991048968477</v>
+        <v>0.1670163435748435</v>
       </c>
       <c r="F11">
-        <v>0.3653027146831036</v>
+        <v>0.554512878323429</v>
       </c>
       <c r="G11">
-        <v>0.2225480877309494</v>
+        <v>0.3882933096932888</v>
       </c>
       <c r="H11">
-        <v>0.1676019592460776</v>
+        <v>0.5507417886598631</v>
       </c>
       <c r="I11">
-        <v>0.343238067188814</v>
+        <v>0.5910648535649656</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.539443204176109</v>
+        <v>2.886451817507805</v>
       </c>
       <c r="L11">
-        <v>0.2878348303508602</v>
+        <v>0.1886194561281798</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7745860736983019</v>
+        <v>1.821594885404025</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4364877125614441</v>
+        <v>0.2944053908640285</v>
       </c>
       <c r="D12">
-        <v>0.1268773654312128</v>
+        <v>0.04933698696123656</v>
       </c>
       <c r="E12">
-        <v>0.255990168512497</v>
+        <v>0.1684459862294361</v>
       </c>
       <c r="F12">
-        <v>0.3721316977413593</v>
+        <v>0.5538793881676654</v>
       </c>
       <c r="G12">
-        <v>0.2267218235755024</v>
+        <v>0.3871250033543348</v>
       </c>
       <c r="H12">
-        <v>0.1675354558817546</v>
+        <v>0.5490036800710456</v>
       </c>
       <c r="I12">
-        <v>0.3488637241006103</v>
+        <v>0.5902343939948764</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.754633995524614</v>
+        <v>2.955384288256255</v>
       </c>
       <c r="L12">
-        <v>0.2949695872367357</v>
+        <v>0.1901949844811526</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7834076193462209</v>
+        <v>1.815551163449257</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.434287469847078</v>
+        <v>0.2938480322737291</v>
       </c>
       <c r="D13">
-        <v>0.1262520575695731</v>
+        <v>0.04913361179769993</v>
       </c>
       <c r="E13">
-        <v>0.2546762137971328</v>
+        <v>0.168137607921075</v>
       </c>
       <c r="F13">
-        <v>0.3706482055305713</v>
+        <v>0.554012225884037</v>
       </c>
       <c r="G13">
-        <v>0.2258104542871067</v>
+        <v>0.3873734170014771</v>
       </c>
       <c r="H13">
-        <v>0.1675429947102032</v>
+        <v>0.5493755038157602</v>
       </c>
       <c r="I13">
-        <v>0.3476407011535443</v>
+        <v>0.5904098284904222</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.708273968319133</v>
+        <v>2.940542918143308</v>
       </c>
       <c r="L13">
-        <v>0.2934299012214154</v>
+        <v>0.1898550085870028</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7814671415510759</v>
+        <v>1.816840810309657</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4271218547810065</v>
+        <v>0.2920326880465041</v>
       </c>
       <c r="D14">
-        <v>0.1242133635756346</v>
+        <v>0.04847006116334285</v>
       </c>
       <c r="E14">
-        <v>0.2503992657907474</v>
+        <v>0.1671337451425501</v>
       </c>
       <c r="F14">
-        <v>0.365858830849433</v>
+        <v>0.5544591408561033</v>
       </c>
       <c r="G14">
-        <v>0.2228858761482186</v>
+        <v>0.3881957501415556</v>
       </c>
       <c r="H14">
-        <v>0.1675934475400283</v>
+        <v>0.5505976629656217</v>
       </c>
       <c r="I14">
-        <v>0.3436957716247235</v>
+        <v>0.5909949904731988</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.557140501986396</v>
+        <v>2.892124941739837</v>
       </c>
       <c r="L14">
-        <v>0.2884204302906141</v>
+        <v>0.188748779417665</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.775293644673809</v>
+        <v>1.821092269432313</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4227401638713104</v>
+        <v>0.2909225250924976</v>
       </c>
       <c r="D15">
-        <v>0.122965026534132</v>
+        <v>0.04806338771639673</v>
       </c>
       <c r="E15">
-        <v>0.2477856751385872</v>
+        <v>0.1665202540642596</v>
       </c>
       <c r="F15">
-        <v>0.362962104881781</v>
+        <v>0.5547434125818</v>
       </c>
       <c r="G15">
-        <v>0.2211306038414804</v>
+        <v>0.3887088217013144</v>
       </c>
       <c r="H15">
-        <v>0.1676440224003244</v>
+        <v>0.5513536155348291</v>
       </c>
       <c r="I15">
-        <v>0.3413125032142972</v>
+        <v>0.5913634285349971</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.464609068755067</v>
+        <v>2.862454515426521</v>
       </c>
       <c r="L15">
-        <v>0.2853609004937994</v>
+        <v>0.1880731080396174</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.7716297690008389</v>
+        <v>1.823731461039898</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3977399902864533</v>
+        <v>0.2845881379471109</v>
       </c>
       <c r="D16">
-        <v>0.1158171024142547</v>
+        <v>0.04572943077650393</v>
       </c>
       <c r="E16">
-        <v>0.2328988942308712</v>
+        <v>0.1630261349589119</v>
       </c>
       <c r="F16">
-        <v>0.3469094390429106</v>
+        <v>0.5565335181142714</v>
       </c>
       <c r="G16">
-        <v>0.2116069209125513</v>
+        <v>0.3917923083401931</v>
       </c>
       <c r="H16">
-        <v>0.1682270237028263</v>
+        <v>0.5557981621261092</v>
       </c>
       <c r="I16">
-        <v>0.3281463611237001</v>
+        <v>0.5936280276759121</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>7.934940514502216</v>
+        <v>2.692229011103336</v>
       </c>
       <c r="L16">
-        <v>0.2679591260154979</v>
+        <v>0.184230635391728</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.7523789489787305</v>
+        <v>1.839391965032291</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3824959075720926</v>
+        <v>0.2807268575838009</v>
       </c>
       <c r="D17">
-        <v>0.1114365376700306</v>
+        <v>0.04429456824213673</v>
       </c>
       <c r="E17">
-        <v>0.2238431846630675</v>
+        <v>0.1609018715115127</v>
       </c>
       <c r="F17">
-        <v>0.3375305767411305</v>
+        <v>0.5577751487327731</v>
       </c>
       <c r="G17">
-        <v>0.2062223191764687</v>
+        <v>0.3938114346983852</v>
       </c>
       <c r="H17">
-        <v>0.16883746466101</v>
+        <v>0.5586250270463324</v>
       </c>
       <c r="I17">
-        <v>0.3204907378678641</v>
+        <v>0.5951538104156882</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.610476212181709</v>
+        <v>2.587629564765336</v>
       </c>
       <c r="L17">
-        <v>0.2573949127096995</v>
+        <v>0.1818997584452973</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.7420666167524814</v>
+        <v>1.849476848222437</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3737600526488905</v>
+        <v>0.2785150597997301</v>
       </c>
       <c r="D18">
-        <v>0.1089183167531615</v>
+        <v>0.04346816865958658</v>
       </c>
       <c r="E18">
-        <v>0.2186612640571255</v>
+        <v>0.1596871455363029</v>
       </c>
       <c r="F18">
-        <v>0.3323009281610325</v>
+        <v>0.5585419201853981</v>
       </c>
       <c r="G18">
-        <v>0.2032859449304212</v>
+        <v>0.3950195041585687</v>
       </c>
       <c r="H18">
-        <v>0.1692780697741014</v>
+        <v>0.56028777941453</v>
       </c>
       <c r="I18">
-        <v>0.3162356767996357</v>
+        <v>0.5960814910821028</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.424003552339968</v>
+        <v>2.527405070591783</v>
       </c>
       <c r="L18">
-        <v>0.2513572838424665</v>
+        <v>0.1805687884896088</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7366623762542588</v>
+        <v>1.855452577018767</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3708075836185287</v>
+        <v>0.27776775181772</v>
       </c>
       <c r="D19">
-        <v>0.1080658996082349</v>
+        <v>0.04318817598618807</v>
       </c>
       <c r="E19">
-        <v>0.2169111940540489</v>
+        <v>0.1592770799698613</v>
       </c>
       <c r="F19">
-        <v>0.3305578740992914</v>
+        <v>0.5588105633505194</v>
       </c>
       <c r="G19">
-        <v>0.202318641985471</v>
+        <v>0.3954365471375141</v>
       </c>
       <c r="H19">
-        <v>0.1694423075787128</v>
+        <v>0.5608570781070057</v>
       </c>
       <c r="I19">
-        <v>0.3148198381869847</v>
+        <v>0.5964041832081648</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.360890946925792</v>
+        <v>2.507003635745718</v>
       </c>
       <c r="L19">
-        <v>0.2493194737663202</v>
+        <v>0.1801198092985317</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7349209902179865</v>
+        <v>1.857505906525631</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3841152972876785</v>
+        <v>0.2811369558041577</v>
       </c>
       <c r="D20">
-        <v>0.1119027090744282</v>
+        <v>0.04444742654501965</v>
       </c>
       <c r="E20">
-        <v>0.2248043842974852</v>
+        <v>0.1611272690818879</v>
       </c>
       <c r="F20">
-        <v>0.3385117478607427</v>
+        <v>0.5576375269189526</v>
       </c>
       <c r="G20">
-        <v>0.2067787195498809</v>
+        <v>0.3935916566668709</v>
       </c>
       <c r="H20">
-        <v>0.1687631444552622</v>
+        <v>0.5583202914357912</v>
       </c>
       <c r="I20">
-        <v>0.3212902025565327</v>
+        <v>0.5949862021872576</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.644999913644483</v>
+        <v>2.598770767733868</v>
       </c>
       <c r="L20">
-        <v>0.2585154439312731</v>
+        <v>0.1821468815924163</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.7431093129432753</v>
+        <v>1.8483851572784</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4292250044172192</v>
+        <v>0.2925655263266265</v>
       </c>
       <c r="D21">
-        <v>0.1248120878487526</v>
+        <v>0.04866501000303458</v>
       </c>
       <c r="E21">
-        <v>0.2516542153315768</v>
+        <v>0.1674283114903758</v>
       </c>
       <c r="F21">
-        <v>0.3672578508580315</v>
+        <v>0.5543256774640497</v>
       </c>
       <c r="G21">
-        <v>0.2237373240718767</v>
+        <v>0.3879522577645105</v>
       </c>
       <c r="H21">
-        <v>0.1675745086405769</v>
+        <v>0.5502371543375375</v>
       </c>
       <c r="I21">
-        <v>0.3448475526601698</v>
+        <v>0.5908210278038268</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.601523140862582</v>
+        <v>2.906349195698965</v>
       </c>
       <c r="L21">
-        <v>0.289889961899533</v>
+        <v>0.1890733043965156</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7770823112063425</v>
+        <v>1.819836206357849</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4590351995259994</v>
+        <v>0.300114898542688</v>
       </c>
       <c r="D22">
-        <v>0.1332672476420669</v>
+        <v>0.05141122076010163</v>
       </c>
       <c r="E22">
-        <v>0.2694737402652336</v>
+        <v>0.1716092785306387</v>
       </c>
       <c r="F22">
-        <v>0.3876763567820731</v>
+        <v>0.5526319201957364</v>
       </c>
       <c r="G22">
-        <v>0.2364165933716293</v>
+        <v>0.3846855400554645</v>
       </c>
       <c r="H22">
-        <v>0.1676688040966425</v>
+        <v>0.5452829908304651</v>
       </c>
       <c r="I22">
-        <v>0.3617077543153187</v>
+        <v>0.5885466259432377</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.228493445822608</v>
+        <v>3.10679061450378</v>
       </c>
       <c r="L22">
-        <v>0.3107879452946207</v>
+        <v>0.1936863308723673</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8044845364511986</v>
+        <v>1.80274557843039</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4430927513019185</v>
+        <v>0.29607837045927</v>
       </c>
       <c r="D23">
-        <v>0.1287526051109609</v>
+        <v>0.04994647052868117</v>
       </c>
       <c r="E23">
-        <v>0.2599365505613562</v>
+        <v>0.1693720795497953</v>
       </c>
       <c r="F23">
-        <v>0.376621093137345</v>
+        <v>0.5534927342310709</v>
       </c>
       <c r="G23">
-        <v>0.229495078838184</v>
+        <v>0.3863905740122391</v>
       </c>
       <c r="H23">
-        <v>0.1675350163514437</v>
+        <v>0.5478970121798525</v>
       </c>
       <c r="I23">
-        <v>0.3525679032801321</v>
+        <v>0.5897194617646591</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.893675658742723</v>
+        <v>2.99986565600625</v>
       </c>
       <c r="L23">
-        <v>0.2995958656429707</v>
+        <v>0.1912163870816954</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7893582312733827</v>
+        <v>1.811723337113818</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3833830839058976</v>
+        <v>0.2809515251483106</v>
       </c>
       <c r="D24">
-        <v>0.1116919523488349</v>
+        <v>0.04437832390578933</v>
       </c>
       <c r="E24">
-        <v>0.224369750535125</v>
+        <v>0.1610253464621749</v>
       </c>
       <c r="F24">
-        <v>0.3380676563751095</v>
+        <v>0.5576995808557044</v>
       </c>
       <c r="G24">
-        <v>0.2065266765227634</v>
+        <v>0.3936908711759912</v>
       </c>
       <c r="H24">
-        <v>0.1687964661685157</v>
+        <v>0.5584579454469463</v>
       </c>
       <c r="I24">
-        <v>0.3209283105637155</v>
+        <v>0.595061820619641</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.629391547268767</v>
+        <v>2.593734106391764</v>
       </c>
       <c r="L24">
-        <v>0.2580087405422233</v>
+        <v>0.1820351289277369</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7426362818868171</v>
+        <v>1.848878157017552</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.320184138751813</v>
+        <v>0.2649835254747188</v>
       </c>
       <c r="D25">
-        <v>0.0933384975546403</v>
+        <v>0.03833015877427215</v>
       </c>
       <c r="E25">
-        <v>0.1870084095771816</v>
+        <v>0.1522934084138896</v>
       </c>
       <c r="F25">
-        <v>0.3027009808115224</v>
+        <v>0.5642477198940483</v>
       </c>
       <c r="G25">
-        <v>0.1878131735265498</v>
+        <v>0.4033499237718416</v>
       </c>
       <c r="H25">
-        <v>0.1735416540435821</v>
+        <v>0.5712566452279901</v>
       </c>
       <c r="I25">
-        <v>0.2923957018588368</v>
+        <v>0.602738433687307</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.271177440520603</v>
+        <v>2.153314696998848</v>
       </c>
       <c r="L25">
-        <v>0.2146027009604978</v>
+        <v>0.1725020734897242</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7121401327965629</v>
+        <v>1.895648059678535</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_189/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_189/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2535284767066628</v>
+        <v>0.2744745223135112</v>
       </c>
       <c r="D2">
-        <v>0.03384184930752099</v>
+        <v>0.07983574005911009</v>
       </c>
       <c r="E2">
-        <v>0.1460973905544876</v>
+        <v>0.160191256629723</v>
       </c>
       <c r="F2">
-        <v>0.570786126120403</v>
+        <v>0.2812061572929778</v>
       </c>
       <c r="G2">
-        <v>0.4119813430658041</v>
+        <v>0.1784425593357568</v>
       </c>
       <c r="H2">
-        <v>0.5818873947717478</v>
+        <v>0.1795858330918918</v>
       </c>
       <c r="I2">
-        <v>0.6100275392125774</v>
+        <v>0.2754940508619654</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.8271088237085</v>
+        <v>5.273341117374741</v>
       </c>
       <c r="L2">
-        <v>0.1657999108884667</v>
+        <v>0.1836478740048193</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.935801470792597</v>
+        <v>0.7043390523461426</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2459551058914968</v>
+        <v>0.2439131547393316</v>
       </c>
       <c r="D3">
-        <v>0.03077883211933852</v>
+        <v>0.07067764984758895</v>
       </c>
       <c r="E3">
-        <v>0.1420438851354504</v>
+        <v>0.1423711299486961</v>
       </c>
       <c r="F3">
-        <v>0.5762823226489218</v>
+        <v>0.2691067256889568</v>
       </c>
       <c r="G3">
-        <v>0.4187710497625545</v>
+        <v>0.1744737549402871</v>
       </c>
       <c r="H3">
-        <v>0.5898434115779878</v>
+        <v>0.1851081906514622</v>
       </c>
       <c r="I3">
-        <v>0.615983827839262</v>
+        <v>0.2662789584104566</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.604884620796497</v>
+        <v>4.597358067472499</v>
       </c>
       <c r="L3">
-        <v>0.1614548716992559</v>
+        <v>0.1631855970955698</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.966560233321019</v>
+        <v>0.7070673752844954</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2413992630319797</v>
+        <v>0.2253244893352502</v>
       </c>
       <c r="D4">
-        <v>0.02888790721193146</v>
+        <v>0.06504699016574733</v>
       </c>
       <c r="E4">
-        <v>0.139626942099639</v>
+        <v>0.1315807047556952</v>
       </c>
       <c r="F4">
-        <v>0.5801803780047905</v>
+        <v>0.2627818148356909</v>
       </c>
       <c r="G4">
-        <v>0.4234010830165076</v>
+        <v>0.1730985638940368</v>
       </c>
       <c r="H4">
-        <v>0.5950985632668804</v>
+        <v>0.1891517247756127</v>
       </c>
       <c r="I4">
-        <v>0.6201408263452244</v>
+        <v>0.2616263538945915</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.467890819799038</v>
+        <v>4.182104480150144</v>
       </c>
       <c r="L4">
-        <v>0.1588840840587693</v>
+        <v>0.1508426346419469</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.987188871812862</v>
+        <v>0.7123500390170818</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2395665547145143</v>
+        <v>0.2177897860294706</v>
       </c>
       <c r="D5">
-        <v>0.02811482424070277</v>
+        <v>0.06275003846947413</v>
       </c>
       <c r="E5">
-        <v>0.1386601477558322</v>
+        <v>0.1272183278343135</v>
       </c>
       <c r="F5">
-        <v>0.5819001913013295</v>
+        <v>0.2604661083374182</v>
       </c>
       <c r="G5">
-        <v>0.4254034280386705</v>
+        <v>0.1727891779376449</v>
       </c>
       <c r="H5">
-        <v>0.5973330628598248</v>
+        <v>0.1909564820565137</v>
       </c>
       <c r="I5">
-        <v>0.6219603016009323</v>
+        <v>0.2599692915239871</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.411931352451404</v>
+        <v>4.012794029273721</v>
       </c>
       <c r="L5">
-        <v>0.1578608908672763</v>
+        <v>0.1458637099103299</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.996032401628042</v>
+        <v>0.715361065089084</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2392636785209419</v>
+        <v>0.2165409784150114</v>
       </c>
       <c r="D6">
-        <v>0.02798630406406488</v>
+        <v>0.06236847151102864</v>
       </c>
       <c r="E6">
-        <v>0.1385007085542362</v>
+        <v>0.126495970167138</v>
       </c>
       <c r="F6">
-        <v>0.5821936883713974</v>
+        <v>0.260096944564026</v>
       </c>
       <c r="G6">
-        <v>0.4257428846658158</v>
+        <v>0.1727525131507477</v>
       </c>
       <c r="H6">
-        <v>0.5977097131395439</v>
+        <v>0.1912654389983572</v>
       </c>
       <c r="I6">
-        <v>0.6222699954419788</v>
+        <v>0.2597081724022345</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.402631394891841</v>
+        <v>3.984673493473281</v>
       </c>
       <c r="L6">
-        <v>0.1576924658816878</v>
+        <v>0.1450399087238097</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.997527238743686</v>
+        <v>0.715911498415565</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2413744497985988</v>
+        <v>0.2252227154783242</v>
       </c>
       <c r="D7">
-        <v>0.02887749125844863</v>
+        <v>0.0650160230865211</v>
       </c>
       <c r="E7">
-        <v>0.1396138301092265</v>
+        <v>0.1315217353969018</v>
       </c>
       <c r="F7">
-        <v>0.5802030406566132</v>
+        <v>0.2627495450990622</v>
       </c>
       <c r="G7">
-        <v>0.4234276199195861</v>
+        <v>0.1730933955879479</v>
       </c>
       <c r="H7">
-        <v>0.5951283221456336</v>
+        <v>0.1891754379601238</v>
       </c>
       <c r="I7">
-        <v>0.6201648567131883</v>
+        <v>0.2616030567570853</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.467136665271994</v>
+        <v>4.179821522287682</v>
       </c>
       <c r="L7">
-        <v>0.1588701860117609</v>
+        <v>0.1507752868393837</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.987306369915842</v>
+        <v>0.7123872344078279</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2508976991587843</v>
+        <v>0.2638979423702352</v>
       </c>
       <c r="D8">
-        <v>0.03278787358417645</v>
+        <v>0.07667927492450133</v>
       </c>
       <c r="E8">
-        <v>0.1446848380197423</v>
+        <v>0.1540135021463982</v>
       </c>
       <c r="F8">
-        <v>0.5725724204389095</v>
+        <v>0.2767952873812334</v>
       </c>
       <c r="G8">
-        <v>0.4142264965257993</v>
+        <v>0.1768439294719499</v>
       </c>
       <c r="H8">
-        <v>0.5845537574252049</v>
+        <v>0.1813500400314396</v>
       </c>
       <c r="I8">
-        <v>0.6119774004569223</v>
+        <v>0.2720994027712216</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.750601954362139</v>
+        <v>5.040276814379013</v>
       </c>
       <c r="L8">
-        <v>0.1642815964343853</v>
+        <v>0.1765437530659852</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.946044805754156</v>
+        <v>0.7045009399454756</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.270315608609593</v>
+        <v>0.341331227388622</v>
       </c>
       <c r="D9">
-        <v>0.04037301997783516</v>
+        <v>0.09951723202321716</v>
       </c>
       <c r="E9">
-        <v>0.1551985438235519</v>
+        <v>0.1994752990894497</v>
       </c>
       <c r="F9">
-        <v>0.5617744437591057</v>
+        <v>0.313856862692397</v>
       </c>
       <c r="G9">
-        <v>0.3998591919051862</v>
+        <v>0.1933806761960781</v>
       </c>
       <c r="H9">
-        <v>0.5667576644274845</v>
+        <v>0.1715240403074532</v>
       </c>
       <c r="I9">
-        <v>0.5998976657291237</v>
+        <v>0.3013239400529102</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.301976376583752</v>
+        <v>6.728191369276715</v>
       </c>
       <c r="L9">
-        <v>0.1756639644864748</v>
+        <v>0.229052468904996</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.879002855878355</v>
+        <v>0.7199793240473866</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2850299678272279</v>
+        <v>0.3994839394322867</v>
       </c>
       <c r="D10">
-        <v>0.04589300757150738</v>
+        <v>0.1163171596812305</v>
       </c>
       <c r="E10">
-        <v>0.1632694884550219</v>
+        <v>0.2339359409451234</v>
       </c>
       <c r="F10">
-        <v>0.5563989767970554</v>
+        <v>0.3480025043065567</v>
       </c>
       <c r="G10">
-        <v>0.3915682528090869</v>
+        <v>0.2122436589714027</v>
       </c>
       <c r="H10">
-        <v>0.555480588394154</v>
+        <v>0.1681697387920806</v>
       </c>
       <c r="I10">
-        <v>0.5934607186227723</v>
+        <v>0.3290404824226272</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.704156078571771</v>
+        <v>7.971986143117306</v>
       </c>
       <c r="L10">
-        <v>0.1844979173025223</v>
+        <v>0.2691699708764901</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.838264972841259</v>
+        <v>0.7536287453476262</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.291820284780357</v>
+        <v>0.426283503159965</v>
       </c>
       <c r="D11">
-        <v>0.04839230633238856</v>
+        <v>0.123974618869596</v>
       </c>
       <c r="E11">
-        <v>0.1670163435748435</v>
+        <v>0.2498991048968335</v>
       </c>
       <c r="F11">
-        <v>0.554512878323429</v>
+        <v>0.3653027146831036</v>
       </c>
       <c r="G11">
-        <v>0.3882933096932888</v>
+        <v>0.2225480877308854</v>
       </c>
       <c r="H11">
-        <v>0.5507417886598631</v>
+        <v>0.1676019592460776</v>
       </c>
       <c r="I11">
-        <v>0.5910648535649656</v>
+        <v>0.3432380671888069</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.886451817507805</v>
+        <v>8.539443204176166</v>
       </c>
       <c r="L11">
-        <v>0.1886194561281798</v>
+        <v>0.2878348303508602</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.821594885404025</v>
+        <v>0.7745860736983161</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2944053908640285</v>
+        <v>0.4364877125614157</v>
       </c>
       <c r="D12">
-        <v>0.04933698696123656</v>
+        <v>0.1268773654311843</v>
       </c>
       <c r="E12">
-        <v>0.1684459862294361</v>
+        <v>0.255990168512497</v>
       </c>
       <c r="F12">
-        <v>0.5538793881676654</v>
+        <v>0.3721316977413593</v>
       </c>
       <c r="G12">
-        <v>0.3871250033543348</v>
+        <v>0.2267218235755522</v>
       </c>
       <c r="H12">
-        <v>0.5490036800710456</v>
+        <v>0.1675354558817546</v>
       </c>
       <c r="I12">
-        <v>0.5902343939948764</v>
+        <v>0.3488637241006174</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.955384288256255</v>
+        <v>8.754633995524671</v>
       </c>
       <c r="L12">
-        <v>0.1901949844811526</v>
+        <v>0.2949695872367641</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.815551163449257</v>
+        <v>0.7834076193462209</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2938480322737291</v>
+        <v>0.4342874698468506</v>
       </c>
       <c r="D13">
-        <v>0.04913361179769993</v>
+        <v>0.1262520575697295</v>
       </c>
       <c r="E13">
-        <v>0.168137607921075</v>
+        <v>0.2546762137971328</v>
       </c>
       <c r="F13">
-        <v>0.554012225884037</v>
+        <v>0.3706482055305855</v>
       </c>
       <c r="G13">
-        <v>0.3873734170014771</v>
+        <v>0.2258104542870427</v>
       </c>
       <c r="H13">
-        <v>0.5493755038157602</v>
+        <v>0.1675429947102032</v>
       </c>
       <c r="I13">
-        <v>0.5904098284904222</v>
+        <v>0.3476407011535443</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.940542918143308</v>
+        <v>8.708273968319304</v>
       </c>
       <c r="L13">
-        <v>0.1898550085870028</v>
+        <v>0.2934299012214154</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.816840810309657</v>
+        <v>0.7814671415511185</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2920326880465041</v>
+        <v>0.4271218547808076</v>
       </c>
       <c r="D14">
-        <v>0.04847006116334285</v>
+        <v>0.1242133635755636</v>
       </c>
       <c r="E14">
-        <v>0.1671337451425501</v>
+        <v>0.2503992657907546</v>
       </c>
       <c r="F14">
-        <v>0.5544591408561033</v>
+        <v>0.3658588308494473</v>
       </c>
       <c r="G14">
-        <v>0.3881957501415556</v>
+        <v>0.2228858761482329</v>
       </c>
       <c r="H14">
-        <v>0.5505976629656217</v>
+        <v>0.1675934475399217</v>
       </c>
       <c r="I14">
-        <v>0.5909949904731988</v>
+        <v>0.3436957716247377</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.892124941739837</v>
+        <v>8.557140501986282</v>
       </c>
       <c r="L14">
-        <v>0.188748779417665</v>
+        <v>0.2884204302906852</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.821092269432313</v>
+        <v>0.7752936446737948</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2909225250924976</v>
+        <v>0.4227401638711967</v>
       </c>
       <c r="D15">
-        <v>0.04806338771639673</v>
+        <v>0.1229650265340467</v>
       </c>
       <c r="E15">
-        <v>0.1665202540642596</v>
+        <v>0.2477856751386156</v>
       </c>
       <c r="F15">
-        <v>0.5547434125818</v>
+        <v>0.3629621048817668</v>
       </c>
       <c r="G15">
-        <v>0.3887088217013144</v>
+        <v>0.2211306038414662</v>
       </c>
       <c r="H15">
-        <v>0.5513536155348291</v>
+        <v>0.1676440224003244</v>
       </c>
       <c r="I15">
-        <v>0.5913634285349971</v>
+        <v>0.3413125032143043</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.862454515426521</v>
+        <v>8.464609068754896</v>
       </c>
       <c r="L15">
-        <v>0.1880731080396174</v>
+        <v>0.2853609004938562</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.823731461039898</v>
+        <v>0.7716297690008247</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2845881379471109</v>
+        <v>0.3977399902867091</v>
       </c>
       <c r="D16">
-        <v>0.04572943077650393</v>
+        <v>0.1158171024144252</v>
       </c>
       <c r="E16">
-        <v>0.1630261349589119</v>
+        <v>0.2328988942308428</v>
       </c>
       <c r="F16">
-        <v>0.5565335181142714</v>
+        <v>0.3469094390428964</v>
       </c>
       <c r="G16">
-        <v>0.3917923083401931</v>
+        <v>0.2116069209125726</v>
       </c>
       <c r="H16">
-        <v>0.5557981621261092</v>
+        <v>0.1682270237029471</v>
       </c>
       <c r="I16">
-        <v>0.5936280276759121</v>
+        <v>0.328146361123693</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.692229011103336</v>
+        <v>7.93494051450233</v>
       </c>
       <c r="L16">
-        <v>0.184230635391728</v>
+        <v>0.26795912601537</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.839391965032291</v>
+        <v>0.7523789489787873</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2807268575838009</v>
+        <v>0.3824959075722916</v>
       </c>
       <c r="D17">
-        <v>0.04429456824213673</v>
+        <v>0.1114365376700306</v>
       </c>
       <c r="E17">
-        <v>0.1609018715115127</v>
+        <v>0.2238431846630675</v>
       </c>
       <c r="F17">
-        <v>0.5577751487327731</v>
+        <v>0.3375305767411305</v>
       </c>
       <c r="G17">
-        <v>0.3938114346983852</v>
+        <v>0.2062223191763763</v>
       </c>
       <c r="H17">
-        <v>0.5586250270463324</v>
+        <v>0.16883746466101</v>
       </c>
       <c r="I17">
-        <v>0.5951538104156882</v>
+        <v>0.3204907378678641</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.587629564765336</v>
+        <v>7.610476212181595</v>
       </c>
       <c r="L17">
-        <v>0.1818997584452973</v>
+        <v>0.2573949127097421</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.849476848222437</v>
+        <v>0.7420666167524104</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2785150597997301</v>
+        <v>0.373760052648862</v>
       </c>
       <c r="D18">
-        <v>0.04346816865958658</v>
+        <v>0.1089183167532894</v>
       </c>
       <c r="E18">
-        <v>0.1596871455363029</v>
+        <v>0.2186612640571539</v>
       </c>
       <c r="F18">
-        <v>0.5585419201853981</v>
+        <v>0.3323009281610325</v>
       </c>
       <c r="G18">
-        <v>0.3950195041585687</v>
+        <v>0.2032859449304354</v>
       </c>
       <c r="H18">
-        <v>0.56028777941453</v>
+        <v>0.1692780697741014</v>
       </c>
       <c r="I18">
-        <v>0.5960814910821028</v>
+        <v>0.3162356767996357</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.527405070591783</v>
+        <v>7.424003552339911</v>
       </c>
       <c r="L18">
-        <v>0.1805687884896088</v>
+        <v>0.2513572838423244</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.855452577018767</v>
+        <v>0.7366623762542446</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.27776775181772</v>
+        <v>0.3708075836185571</v>
       </c>
       <c r="D19">
-        <v>0.04318817598618807</v>
+        <v>0.1080658996082491</v>
       </c>
       <c r="E19">
-        <v>0.1592770799698613</v>
+        <v>0.216911194054056</v>
       </c>
       <c r="F19">
-        <v>0.5588105633505194</v>
+        <v>0.3305578740993056</v>
       </c>
       <c r="G19">
-        <v>0.3954365471375141</v>
+        <v>0.2023186419854781</v>
       </c>
       <c r="H19">
-        <v>0.5608570781070057</v>
+        <v>0.1694423075787128</v>
       </c>
       <c r="I19">
-        <v>0.5964041832081648</v>
+        <v>0.3148198381869918</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.507003635745718</v>
+        <v>7.360890946925792</v>
       </c>
       <c r="L19">
-        <v>0.1801198092985317</v>
+        <v>0.2493194737663771</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.857505906525631</v>
+        <v>0.7349209902179581</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2811369558041577</v>
+        <v>0.3841152972879058</v>
       </c>
       <c r="D20">
-        <v>0.04444742654501965</v>
+        <v>0.1119027090744709</v>
       </c>
       <c r="E20">
-        <v>0.1611272690818879</v>
+        <v>0.2248043842975349</v>
       </c>
       <c r="F20">
-        <v>0.5576375269189526</v>
+        <v>0.3385117478607356</v>
       </c>
       <c r="G20">
-        <v>0.3935916566668709</v>
+        <v>0.206778719549817</v>
       </c>
       <c r="H20">
-        <v>0.5583202914357912</v>
+        <v>0.168763144455248</v>
       </c>
       <c r="I20">
-        <v>0.5949862021872576</v>
+        <v>0.3212902025565469</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.598770767733868</v>
+        <v>7.644999913644426</v>
       </c>
       <c r="L20">
-        <v>0.1821468815924163</v>
+        <v>0.2585154439312873</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.8483851572784</v>
+        <v>0.7431093129432327</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2925655263266265</v>
+        <v>0.4292250044168213</v>
       </c>
       <c r="D21">
-        <v>0.04866501000303458</v>
+        <v>0.1248120878488805</v>
       </c>
       <c r="E21">
-        <v>0.1674283114903758</v>
+        <v>0.2516542153315982</v>
       </c>
       <c r="F21">
-        <v>0.5543256774640497</v>
+        <v>0.3672578508580315</v>
       </c>
       <c r="G21">
-        <v>0.3879522577645105</v>
+        <v>0.2237373240718625</v>
       </c>
       <c r="H21">
-        <v>0.5502371543375375</v>
+        <v>0.1675745086405769</v>
       </c>
       <c r="I21">
-        <v>0.5908210278038268</v>
+        <v>0.3448475526601769</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.906349195698965</v>
+        <v>8.601523140862298</v>
       </c>
       <c r="L21">
-        <v>0.1890733043965156</v>
+        <v>0.2898899618995188</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.819836206357849</v>
+        <v>0.7770823112062715</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.300114898542688</v>
+        <v>0.4590351995256583</v>
       </c>
       <c r="D22">
-        <v>0.05141122076010163</v>
+        <v>0.1332672476421379</v>
       </c>
       <c r="E22">
-        <v>0.1716092785306387</v>
+        <v>0.2694737402652052</v>
       </c>
       <c r="F22">
-        <v>0.5526319201957364</v>
+        <v>0.3876763567820731</v>
       </c>
       <c r="G22">
-        <v>0.3846855400554645</v>
+        <v>0.2364165933716293</v>
       </c>
       <c r="H22">
-        <v>0.5452829908304651</v>
+        <v>0.1676688040966354</v>
       </c>
       <c r="I22">
-        <v>0.5885466259432377</v>
+        <v>0.3617077543153258</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.10679061450378</v>
+        <v>9.228493445822892</v>
       </c>
       <c r="L22">
-        <v>0.1936863308723673</v>
+        <v>0.3107879452946491</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.80274557843039</v>
+        <v>0.8044845364512696</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.29607837045927</v>
+        <v>0.4430927513019753</v>
       </c>
       <c r="D23">
-        <v>0.04994647052868117</v>
+        <v>0.128752605110904</v>
       </c>
       <c r="E23">
-        <v>0.1693720795497953</v>
+        <v>0.2599365505613846</v>
       </c>
       <c r="F23">
-        <v>0.5534927342310709</v>
+        <v>0.376621093137345</v>
       </c>
       <c r="G23">
-        <v>0.3863905740122391</v>
+        <v>0.22949507883812</v>
       </c>
       <c r="H23">
-        <v>0.5478970121798525</v>
+        <v>0.1675350163515503</v>
       </c>
       <c r="I23">
-        <v>0.5897194617646591</v>
+        <v>0.3525679032801179</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.99986565600625</v>
+        <v>8.893675658742779</v>
       </c>
       <c r="L23">
-        <v>0.1912163870816954</v>
+        <v>0.2995958656430275</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.811723337113818</v>
+        <v>0.7893582312733542</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2809515251483106</v>
+        <v>0.3833830839056418</v>
       </c>
       <c r="D24">
-        <v>0.04437832390578933</v>
+        <v>0.1116919523487923</v>
       </c>
       <c r="E24">
-        <v>0.1610253464621749</v>
+        <v>0.2243697505351179</v>
       </c>
       <c r="F24">
-        <v>0.5576995808557044</v>
+        <v>0.3380676563751095</v>
       </c>
       <c r="G24">
-        <v>0.3936908711759912</v>
+        <v>0.2065266765226497</v>
       </c>
       <c r="H24">
-        <v>0.5584579454469463</v>
+        <v>0.1687964661686294</v>
       </c>
       <c r="I24">
-        <v>0.595061820619641</v>
+        <v>0.3209283105637084</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.593734106391764</v>
+        <v>7.629391547268767</v>
       </c>
       <c r="L24">
-        <v>0.1820351289277369</v>
+        <v>0.2580087405420812</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.848878157017552</v>
+        <v>0.7426362818868171</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2649835254747188</v>
+        <v>0.3201841387518698</v>
       </c>
       <c r="D25">
-        <v>0.03833015877427215</v>
+        <v>0.09333849755463319</v>
       </c>
       <c r="E25">
-        <v>0.1522934084138896</v>
+        <v>0.1870084095772171</v>
       </c>
       <c r="F25">
-        <v>0.5642477198940483</v>
+        <v>0.3027009808115295</v>
       </c>
       <c r="G25">
-        <v>0.4033499237718416</v>
+        <v>0.1878131735265569</v>
       </c>
       <c r="H25">
-        <v>0.5712566452279901</v>
+        <v>0.1735416540434684</v>
       </c>
       <c r="I25">
-        <v>0.602738433687307</v>
+        <v>0.2923957018588226</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.153314696998848</v>
+        <v>6.271177440520717</v>
       </c>
       <c r="L25">
-        <v>0.1725020734897242</v>
+        <v>0.2146027009604126</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.895648059678535</v>
+        <v>0.7121401327966197</v>
       </c>
     </row>
   </sheetData>
